--- a/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,76</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; -4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; -0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; -3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 0,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -5,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; -1,76</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,52%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-92,42; 2,34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-86,58; 24,0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,18; -25,63</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; -3,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; -2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,95; -4,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,5; -3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; -4,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; -3,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,01%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-95,95; -59,31</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-93,42; -63,65</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; -71,03</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,73</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; -2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; -1,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -4,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; -1,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; -4,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; -2,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,69%</t>
         </is>
       </c>
     </row>
@@ -1032,34 +1032,34 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,99; -25,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -68,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,47; -30,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -81,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,03; -50,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,43</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; -3,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; -0,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,97; -4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; -1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; -3,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; -1,98</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,63%</t>
         </is>
       </c>
     </row>
@@ -1188,38 +1188,202 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>-83,38; -13,65</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -76,33</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-90,4; -31,37</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -88,11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-81,72; -41,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,48</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,67</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,87</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; -4,16</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; -2,3</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; -5,28</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; -3,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; -4,98</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; -3,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-70,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-96,58%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-69,6%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-98,05%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-70,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-81,94; -49,88</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-99,08; -89,86</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-79,54; -55,7</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-99,47; -94,89</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-78,23; -59,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,295 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,93</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,76</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.992753057251544</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.439803449416146</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.924263637943077</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.971515766604416</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-8.926402303605624</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-5.706094296616842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; -4,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; -0,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,95; -3,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 0,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,39; -5,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,89; -1,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.51181389494353</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.51316057447614</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.13228032407251</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.40769889757907</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-13.53432335567667</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-10.86301726438964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-65,62%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-62,83%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-64,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.850689763993604</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.6326119898548082</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-3.429130130516536</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.1303694741810475</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-5.453107492235478</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-1.809716972384681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-92,42; 2,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-86,58; 24,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-83,18; -25,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.6444473722627325</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.6273788952199584</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.6392378589425652</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-5,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.9206098766912052</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.8666840176699764</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.8288516293481709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,58; -3,79</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; -2,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; -4,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; -3,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; -4,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; -3,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>0.04309423562076661</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>0.229570433840166</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>-0.2349558268111542</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-84,84%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-83,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-84,01%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.374200689209035</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.404251460414463</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.224310113732588</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.972872840756974</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-6.813890323565586</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-5.702303598042635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-95,95; -59,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-93,42; -63,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-92,11; -71,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.579321703571262</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.797747352575357</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.21382173130152</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.493619458877719</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.168425140520252</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-8.21943024522988</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,28</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,15</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-6,27</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-3.793968792293393</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.761266556553139</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-4.543998490775248</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-3.149884537160166</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-4.950902077718069</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-3.817158946284818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; -2,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; -1,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; -4,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; -1,86</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; -4,27</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; -2,71</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.8478320222272556</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.8267741482198039</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.8368645997017931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-81,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-91,77%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-65,26%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-94,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-71,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.9627047267089913</v>
+      </c>
+      <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-0.931103945400966</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.9207530139847014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-96,99; -25,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -68,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-83,47; -30,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -81,72</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-86,03; -50,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="n">
+        <v>-0.6101210863635425</v>
+      </c>
+      <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>-0.621396417441089</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>-0.7025949857174367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +904,324 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,41</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-4,28</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,43</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.222148093600033</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.255171021183179</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.19725893770028</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-5.072353246498722</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-6.298109487648247</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-4.715320340660517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; -3,02</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; -0,59</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; -4,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; -1,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-6,41; -3,99</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; -1,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.734423356719718</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.885088349129934</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.06275235265012</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-9.055781696551286</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-9.052066919159095</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-7.451113278618236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-59,45%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-96,19%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-70,3%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-97,84%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-65,63%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-2.551826306857751</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-1.303177892447416</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-4.251419352028988</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-1.864809521275009</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-4.312085311060211</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-2.696879812596784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-83,38; -13,65</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -76,33</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-90,4; -31,37</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -88,11</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-81,72; -41,18</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.8148315491853007</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9241133545565824</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.6512798017540365</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9540717995485608</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.7143023111434944</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,48</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,67</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-5,87</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.9675321331236265</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.8356313113836262</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.8584244461437806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; -4,16</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; -2,3</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; -5,28</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; -3,22</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; -4,98</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; -3,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>-0.2295450329350691</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.7038479083508139</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.3088668014882374</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.8368885525007662</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.4984009697096172</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-70,68%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-96,58%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-69,6%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-98,05%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-70,02%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.544798134167543</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.060998910172004</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.331645647401759</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-5.417408615329471</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-6.958212946176551</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-5.249690110476905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-81,94; -49,88</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-99,08; -89,86</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-79,54; -55,7</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-99,47; -94,89</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-78,23; -59,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.915486463736553</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.456278168812807</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-9.649447641428925</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-7.999586645406266</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-8.571076267217567</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-6.964369599265662</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-4.580286777779735</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.980021796648392</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-5.359513470448981</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-3.537502374866358</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-5.508412117683135</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-3.765138456411973</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.7732857158344933</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9721218448333701</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.718308209455897</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9845271033275936</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.742785861515685</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-0.8851595887783866</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.8280486380762219</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.8271388486157497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>-0.583232637142639</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.9008572071513297</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.5657674399403843</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.9454796545880911</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.6315715499723075</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
